--- a/biology/Zoologie/Brissidina/Brissidina.xlsx
+++ b/biology/Zoologie/Brissidina/Brissidina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Brissidina sont un  sous-ordre d'oursins irréguliers de l'ordre des Spatangoida.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sous-ordre des Brissidina a été créé en 2015 par Bruce Stockley (d), Andrew Benjamin Smith (d), Tim Littlewood (d), Harilaos A. Lessios (d) et Jackie Mackenzie-Dodds (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sous-ordre des Brissidina a été créé en 2015 par Bruce Stockley (d), Andrew Benjamin Smith (d), Tim Littlewood (d), Harilaos A. Lessios (d) et Jackie Mackenzie-Dodds (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (20 mars 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (20 mars 2015) :
 famille † Antillasteridae Lambert in Lambert &amp; Thiéry, 1924 †
 famille † Asterostomatidae Pictet, 1857
 famille Brissidae Gray, 1855 -- 13 genres actuels
@@ -591,7 +607,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Bruce Stockley, Andrew B. Smith, Tim Littlewood, Harilaos A. Lessios et Jacqueline A. Mackenzie-Dodds, « Phylogenetic relationships of spatangoid sea urchins (Echinoidea): taxon sampling density and congruence between morphological and molecular estimates », Zoologica Scripta, Wiley-Blackwell, vol. 34, no 5,‎ septembre 2005, p. 447-468 (ISSN 0300-3256 et 1463-6409, DOI 10.1111/J.1463-6409.2005.00201.X)</t>
         </is>
